--- a/HU001.xlsx
+++ b/HU001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://campusuccedu-my.sharepoint.com/personal/samuel_menapupi_campusucc_edu_co/Documents/Ingeniería_Requisitos/Requerimientos Samuel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labinf4.pasto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{9065C2A5-FF34-4CD3-8E7F-2F6359E788A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96457649-CC96-4B3D-9638-9D38FA69540A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9867B05-9130-4482-BDDB-B6FFA05C5C57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B7CC6BA7-6AEB-44EA-8071-781CB3B5ED20}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" activeTab="3" xr2:uid="{B7CC6BA7-6AEB-44EA-8071-781CB3B5ED20}"/>
   </bookViews>
   <sheets>
     <sheet name="Información General" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>Nombre del analista</t>
   </si>
@@ -118,9 +118,6 @@
     <t>Paso 2</t>
   </si>
   <si>
-    <t>El usuario envía el formulario.</t>
-  </si>
-  <si>
     <t>Paso 3</t>
   </si>
   <si>
@@ -218,18 +215,6 @@
   </si>
   <si>
     <t>Se trata del proceso en el que el sistema crea automáticamente un perfil para el usuario tras el registro.</t>
-  </si>
-  <si>
-    <t>El usuario completa el formulario de registro.</t>
-  </si>
-  <si>
-    <t>El sistema valida la información ingresada.</t>
-  </si>
-  <si>
-    <t>El sistema crea automáticamente el perfil del usuario.</t>
-  </si>
-  <si>
-    <t>El usuario recibe confirmación de que su perfil ha sido creado.</t>
   </si>
   <si>
     <t>El perfil aparece en el sistema.</t>
@@ -315,7 +300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -364,11 +349,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -386,13 +382,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -434,6 +424,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,6 +504,56 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1506440</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3410902</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>723901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69638941-B617-40D7-9F3E-B5591AD55ED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3954365" y="2324101"/>
+          <a:ext cx="1904462" cy="4305300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -510,9 +562,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -550,7 +602,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -656,7 +708,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -798,7 +850,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -808,38 +860,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D24C0C1-28DB-4FF1-8E91-3B5432E6DC3B}">
   <dimension ref="B2:C9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
@@ -847,7 +899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
@@ -869,93 +921,93 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="55.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="19" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="19" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="19" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="19" t="s">
+    <row r="10" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="19" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="18" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="18" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="21"/>
+      <c r="C13" s="16" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="23"/>
-      <c r="C13" s="18" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -971,93 +1023,93 @@
       <selection activeCell="C4" sqref="C4:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="62.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C9" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="25" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="15" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="19"/>
+      <c r="C13" s="14" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="21"/>
-      <c r="C13" s="16" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1069,23 +1121,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A036D14E-3D7B-459A-A7A4-9FF95BEA379B}">
   <dimension ref="B2:C13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1093,77 +1145,70 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:3" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="25"/>
+    </row>
+    <row r="7" spans="2:3" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="26"/>
+    </row>
+    <row r="8" spans="2:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="26"/>
+    </row>
+    <row r="9" spans="2:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C9" s="26"/>
+    </row>
+    <row r="10" spans="2:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="27"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="14"/>
-      <c r="C13" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C6:C10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1178,19 +1223,19 @@
       <selection activeCell="B5" sqref="B5:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1198,39 +1243,39 @@
         <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D7" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="12">
-        <v>2</v>
-      </c>
-      <c r="C7" s="12" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="12">
-        <v>3</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>50</v>
       </c>
     </row>
